--- a/Assets/Documents/logboek.xlsx
+++ b/Assets/Documents/logboek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnesix/Documents/dev/unity/BACHELORPROEF_2021/Assets/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arnesix/Documents/dev/unity/BAP_2021_SIX_ARNE/Assets/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353B2F52-5B06-FE46-8529-FC5B1ED71F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D098E51-C6E1-2146-B890-E0DF6782A7CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{15CA8060-7959-7D42-A72D-3647D849FB4E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Tijdstip</t>
   </si>
@@ -166,6 +166,27 @@
   </si>
   <si>
     <t>AI Vision cone + pathfinding cost</t>
+  </si>
+  <si>
+    <t>Introductie scherm maken</t>
+  </si>
+  <si>
+    <t>Audio systeem opnieuw maken met mixer</t>
+  </si>
+  <si>
+    <t>tutorials kijken nieuw input systeem</t>
+  </si>
+  <si>
+    <t>Implementeren nieuw input systeem separate branch</t>
+  </si>
+  <si>
+    <t>Bugs fixen nieuw input systeem</t>
+  </si>
+  <si>
+    <t>Modellen maken mediatheek, B14,B24,B13 en stille ruimte</t>
+  </si>
+  <si>
+    <t>AI animator + behaviour scripts herwerken</t>
   </si>
 </sst>
 </file>
@@ -211,19 +232,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EC19CD-9B5B-C14E-ADF2-C1399DE4B522}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +588,7 @@
       </c>
       <c r="H1" s="3">
         <f>SUM(G3:G100)</f>
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
@@ -577,359 +598,359 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="176" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>44090</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
       <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>44095</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>44098</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
         <v>6</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44105</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4">
         <v>3</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44111</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44116</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>4</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44124</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>1</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>44127</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>44140</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>3</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>44147</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
         <v>2</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>44225</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
         <v>2</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>44232</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>44233</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
         <v>2</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>44237</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="7">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4">
         <v>4</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>44250</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <v>5</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>44252</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
         <v>2</v>
       </c>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>44253</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
         <v>3</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
         <v>6</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>44260</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
         <v>4</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>44261</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <v>5</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:12" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -942,11 +963,11 @@
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="7">
+      <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -1022,21 +1043,21 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>44278</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8">
         <v>7</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -1093,21 +1114,21 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="A31" s="6">
         <v>44285</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8">
         <v>3</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -1194,32 +1215,213 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>44294</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
+        <v>5</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>44295</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>44296</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>44297</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3">
+        <v>3</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>44302</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3">
+        <v>3</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>44303</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>44304</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G17:I17"/>
+  <mergeCells count="135">
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:I21"/>
@@ -1242,74 +1444,33 @@
     <mergeCell ref="G26:I26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
